--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.452903018420474E-06</v>
+        <v>3.96693397741777E-06</v>
       </c>
       <c r="E2">
-        <v>3.452903018420474E-06</v>
+        <v>3.96693397741777E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.9999999999926046</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.9999999999926046</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9655223483025736</v>
+        <v>0.9985248464753377</v>
       </c>
       <c r="E4">
-        <v>0.9655223483025736</v>
+        <v>0.9985248464753377</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4.673702902837935E-23</v>
+        <v>3.729110678382355E-40</v>
       </c>
       <c r="E5">
-        <v>4.673702902837935E-23</v>
+        <v>3.729110678382355E-40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.00200062234396713</v>
+        <v>0.007078098031594035</v>
       </c>
       <c r="E6">
-        <v>0.00200062234396713</v>
+        <v>0.007078098031594035</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9999999953767738</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4.623226246280865E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.652835848857439E-05</v>
+        <v>5.119770918189952E-05</v>
       </c>
       <c r="E8">
-        <v>0.9999834716415115</v>
+        <v>0.9999488022908181</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9960238520074366</v>
+        <v>0.9902678324694812</v>
       </c>
       <c r="E9">
-        <v>0.003976147992563406</v>
+        <v>0.009732167530518754</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999999039</v>
+        <v>0.9999999994760636</v>
       </c>
       <c r="E11">
-        <v>9.614531393253856E-14</v>
+        <v>5.239364497811039E-10</v>
       </c>
       <c r="F11">
-        <v>6.258450508117676</v>
+        <v>4.204585075378418</v>
       </c>
       <c r="G11">
         <v>0.7</v>
